--- a/Fase2/Evidencias Proyecto/RESUMEN Estado de Avance Casos de Uso.xlsx
+++ b/Fase2/Evidencias Proyecto/RESUMEN Estado de Avance Casos de Uso.xlsx
@@ -159,7 +159,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="93">
   <si>
     <t>Problema asignado:</t>
   </si>
@@ -380,7 +380,10 @@
     <t>Se completo la creacion de las cuentas y ya esta todo vinculado correctamente con Firebase</t>
   </si>
   <si>
-    <t>Se completo el registro de preguntas y luego de registrarse llega a la vistas de preguntas y el usuario puede elegir las distintas opciones  y despues es enviado a la vista de bienvenida.</t>
+    <t>Damian Henriquez,Luis Hinojosa</t>
+  </si>
+  <si>
+    <t>Se cambiaron algunas cosas como la incorporacion de la edad y pais, ademas de el cambio de agregar las alergias</t>
   </si>
   <si>
     <t>Se corrigio el diseño y el perfil ya no crashea al presionarlo repetidas veces, la razon de esto era que realizaba solicitudes repetidas veces para cargar los datos de firebase.</t>
@@ -389,13 +392,52 @@
     <t>Se creo el boton para actualizar los datos y ya se actualizan correctamente y se guardan cada vez que inicia sesion o estan almacenado dentro de Firebase en la tabla usuarios</t>
   </si>
   <si>
+    <t>Se arreglo correctamente y funciona perfecto.</t>
+  </si>
+  <si>
+    <t>se cambiaron las restricciones</t>
+  </si>
+  <si>
+    <t>se cambiaronla forma de seleccionar las alergias, ahora se pueden agregar diferentes mas al escribirlas</t>
+  </si>
+  <si>
     <t>Se creo el cambiar contraseña pero pidiendole primero al usuario que ingrese su contraseña anterior funcionando correctamente y utilizando esa nueva contraseña al iniciar sesion</t>
   </si>
   <si>
     <t>Se creo el eliminar cuenta y se pregunta al usuario por seguridad antes de eliminarla y ademas es enviado al inicio en vez de cerrarle la app</t>
   </si>
   <si>
-    <t>Funciona correctamente aunque todavia falta vincularlo al perfil de usuario,aunque ya se utilizo la api fast food para dar las recomendaciones.</t>
+    <t>Damian Henriquez,Francisco Arriagada,Luis Hinojosa</t>
+  </si>
+  <si>
+    <t>El login se volvio a modificar para integrar la vista de administrador</t>
+  </si>
+  <si>
+    <t>Luis Hinojosa,Damian Henriquez</t>
+  </si>
+  <si>
+    <t>funciona correctamente solo se acomodaron unas cosas.</t>
+  </si>
+  <si>
+    <t>Ver reportes personales de los escaneos realizados</t>
+  </si>
+  <si>
+    <t>Vista del administrador</t>
+  </si>
+  <si>
+    <t>Se realizo la vista del administrador</t>
+  </si>
+  <si>
+    <t>Se agrego la creacion,modificacion y eliminacion de ingredientes</t>
+  </si>
+  <si>
+    <t>Se utilizo un backend para realizar esto y luego integrarlo dentro de Android studio + kotlin atraves de fuctions de firebase</t>
+  </si>
+  <si>
+    <t>Se agrego la barra de busqueda de los ingredientes</t>
+  </si>
+  <si>
+    <t>se utilizo un buscador el cual estuviera conectado a firebase para buscar los ingredientes</t>
   </si>
 </sst>
 </file>
@@ -690,7 +732,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="49">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -787,8 +829,26 @@
     <xf borderId="17" fillId="6" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
+    <xf borderId="17" fillId="4" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" vertical="top"/>
+    </xf>
+    <xf borderId="1" fillId="4" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="17" fillId="4" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="17" fillId="5" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
     <xf borderId="17" fillId="6" fontId="9" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="17" fillId="6" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="17" fillId="6" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -15896,8 +15956,8 @@
       <c r="Z8" s="27"/>
     </row>
     <row r="9" ht="33.75" customHeight="1">
-      <c r="A9" s="21">
-        <v>45923.0</v>
+      <c r="A9" s="42">
+        <v>45977.0</v>
       </c>
       <c r="B9" s="22" t="s">
         <v>27</v>
@@ -15908,14 +15968,14 @@
       <c r="D9" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="29" t="s">
-        <v>24</v>
+      <c r="E9" s="43" t="s">
+        <v>73</v>
       </c>
       <c r="F9" s="25">
         <v>1.0</v>
       </c>
-      <c r="G9" s="24" t="s">
-        <v>73</v>
+      <c r="G9" s="44" t="s">
+        <v>74</v>
       </c>
       <c r="H9" s="24"/>
       <c r="I9" s="1"/>
@@ -15957,7 +16017,7 @@
         <v>1.0</v>
       </c>
       <c r="G10" s="24" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H10" s="24"/>
       <c r="I10" s="1"/>
@@ -15999,7 +16059,7 @@
         <v>1.0</v>
       </c>
       <c r="G11" s="24" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H11" s="24"/>
       <c r="I11" s="1"/>
@@ -16040,8 +16100,8 @@
       <c r="F12" s="33">
         <v>1.0</v>
       </c>
-      <c r="G12" s="26" t="s">
-        <v>64</v>
+      <c r="G12" s="45" t="s">
+        <v>77</v>
       </c>
       <c r="H12" s="26"/>
       <c r="I12" s="1"/>
@@ -16064,8 +16124,8 @@
       <c r="Z12" s="32"/>
     </row>
     <row r="13">
-      <c r="A13" s="21">
-        <v>45927.0</v>
+      <c r="A13" s="42">
+        <v>45977.0</v>
       </c>
       <c r="B13" s="30" t="s">
         <v>36</v>
@@ -16076,14 +16136,14 @@
       <c r="D13" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="E13" s="24" t="s">
-        <v>24</v>
+      <c r="E13" s="44" t="s">
+        <v>73</v>
       </c>
       <c r="F13" s="33">
         <v>1.0</v>
       </c>
-      <c r="G13" s="26" t="s">
-        <v>65</v>
+      <c r="G13" s="45" t="s">
+        <v>78</v>
       </c>
       <c r="H13" s="26"/>
       <c r="I13" s="1"/>
@@ -16106,8 +16166,8 @@
       <c r="Z13" s="32"/>
     </row>
     <row r="14">
-      <c r="A14" s="21">
-        <v>45928.0</v>
+      <c r="A14" s="42">
+        <v>45977.0</v>
       </c>
       <c r="B14" s="30" t="s">
         <v>38</v>
@@ -16118,14 +16178,14 @@
       <c r="D14" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="E14" s="24" t="s">
-        <v>24</v>
+      <c r="E14" s="44" t="s">
+        <v>73</v>
       </c>
       <c r="F14" s="33">
         <v>1.0</v>
       </c>
-      <c r="G14" s="26" t="s">
-        <v>65</v>
+      <c r="G14" s="45" t="s">
+        <v>79</v>
       </c>
       <c r="H14" s="26"/>
       <c r="I14" s="1"/>
@@ -16167,7 +16227,7 @@
         <v>1.0</v>
       </c>
       <c r="G15" s="26" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H15" s="26"/>
       <c r="I15" s="35"/>
@@ -16209,7 +16269,7 @@
         <v>1.0</v>
       </c>
       <c r="G16" s="26" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="H16" s="41"/>
       <c r="I16" s="1"/>
@@ -16232,8 +16292,8 @@
       <c r="Z16" s="40"/>
     </row>
     <row r="17">
-      <c r="A17" s="21">
-        <v>45931.0</v>
+      <c r="A17" s="42">
+        <v>45980.0</v>
       </c>
       <c r="B17" s="37" t="s">
         <v>44</v>
@@ -16244,14 +16304,14 @@
       <c r="D17" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="E17" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="F17" s="42">
-        <v>0.9</v>
-      </c>
-      <c r="G17" s="41" t="s">
-        <v>67</v>
+      <c r="E17" s="44" t="s">
+        <v>82</v>
+      </c>
+      <c r="F17" s="46">
+        <v>1.0</v>
+      </c>
+      <c r="G17" s="47" t="s">
+        <v>83</v>
       </c>
       <c r="H17" s="41"/>
       <c r="I17" s="1"/>
@@ -16274,8 +16334,8 @@
       <c r="Z17" s="40"/>
     </row>
     <row r="18" ht="30.0" customHeight="1">
-      <c r="A18" s="21">
-        <v>45932.0</v>
+      <c r="A18" s="42">
+        <v>45977.0</v>
       </c>
       <c r="B18" s="37" t="s">
         <v>47</v>
@@ -16286,11 +16346,11 @@
       <c r="D18" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="F18" s="39">
-        <v>0.7</v>
+      <c r="E18" s="44" t="s">
+        <v>84</v>
+      </c>
+      <c r="F18" s="46">
+        <v>1.0</v>
       </c>
       <c r="G18" s="41" t="s">
         <v>68</v>
@@ -16316,8 +16376,8 @@
       <c r="Z18" s="40"/>
     </row>
     <row r="19" ht="30.0" customHeight="1">
-      <c r="A19" s="21">
-        <v>45933.0</v>
+      <c r="A19" s="42">
+        <v>45977.0</v>
       </c>
       <c r="B19" s="37" t="s">
         <v>50</v>
@@ -16328,11 +16388,11 @@
       <c r="D19" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="E19" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="F19" s="39">
-        <v>0.7</v>
+      <c r="E19" s="44" t="s">
+        <v>84</v>
+      </c>
+      <c r="F19" s="46">
+        <v>1.0</v>
       </c>
       <c r="G19" s="41" t="s">
         <v>69</v>
@@ -16358,8 +16418,8 @@
       <c r="Z19" s="40"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="21">
-        <v>45934.0</v>
+      <c r="A20" s="42">
+        <v>45980.0</v>
       </c>
       <c r="B20" s="37" t="s">
         <v>52</v>
@@ -16373,11 +16433,11 @@
       <c r="E20" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="F20" s="42">
-        <v>0.7</v>
-      </c>
-      <c r="G20" s="41" t="s">
-        <v>78</v>
+      <c r="F20" s="46">
+        <v>1.0</v>
+      </c>
+      <c r="G20" s="47" t="s">
+        <v>85</v>
       </c>
       <c r="H20" s="41"/>
       <c r="I20" s="1"/>
@@ -16400,21 +16460,23 @@
       <c r="Z20" s="1"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="21">
-        <v>45935.0</v>
+      <c r="A21" s="42">
+        <v>45980.0</v>
       </c>
       <c r="B21" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="C21" s="38" t="s">
-        <v>56</v>
+      <c r="C21" s="48" t="s">
+        <v>86</v>
       </c>
       <c r="D21" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="E21" s="24"/>
-      <c r="F21" s="39">
-        <v>0.0</v>
+      <c r="E21" s="44" t="s">
+        <v>82</v>
+      </c>
+      <c r="F21" s="46">
+        <v>1.0</v>
       </c>
       <c r="G21" s="41" t="s">
         <v>71</v>
@@ -16440,24 +16502,26 @@
       <c r="Z21" s="1"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="21">
-        <v>45936.0</v>
+      <c r="A22" s="42">
+        <v>45980.0</v>
       </c>
       <c r="B22" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="C22" s="38" t="s">
-        <v>58</v>
+      <c r="C22" s="48" t="s">
+        <v>87</v>
       </c>
       <c r="D22" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="E22" s="41"/>
-      <c r="F22" s="39">
-        <v>0.0</v>
-      </c>
-      <c r="G22" s="41" t="s">
-        <v>71</v>
+      <c r="E22" s="44" t="s">
+        <v>82</v>
+      </c>
+      <c r="F22" s="46">
+        <v>1.0</v>
+      </c>
+      <c r="G22" s="47" t="s">
+        <v>88</v>
       </c>
       <c r="H22" s="41"/>
       <c r="I22" s="1"/>
@@ -16480,14 +16544,28 @@
       <c r="Z22" s="1"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
+      <c r="A23" s="42">
+        <v>45980.0</v>
+      </c>
+      <c r="B23" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" s="48" t="s">
+        <v>89</v>
+      </c>
+      <c r="D23" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" s="44" t="s">
+        <v>82</v>
+      </c>
+      <c r="F23" s="46">
+        <v>1.0</v>
+      </c>
+      <c r="G23" s="47" t="s">
+        <v>90</v>
+      </c>
+      <c r="H23" s="41"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
@@ -16508,14 +16586,28 @@
       <c r="Z23" s="1"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
+      <c r="A24" s="42">
+        <v>45980.0</v>
+      </c>
+      <c r="B24" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" s="48" t="s">
+        <v>91</v>
+      </c>
+      <c r="D24" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" s="44" t="s">
+        <v>82</v>
+      </c>
+      <c r="F24" s="46">
+        <v>1.0</v>
+      </c>
+      <c r="G24" s="47" t="s">
+        <v>92</v>
+      </c>
+      <c r="H24" s="41"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
